--- a/ControleDeRevisitas.xlsx
+++ b/ControleDeRevisitas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revisitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F369B-E6B3-40D3-973B-CF93BDC8F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC822C-A5D0-4944-8AFA-6A4D8498E4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AAD6DFC-D512-449D-8372-B7C41E90A1FE}"/>
   </bookViews>

--- a/ControleDeRevisitas.xlsx
+++ b/ControleDeRevisitas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revisitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CD204-8D9A-479B-8357-253472D8E8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03662632-B1A8-43E3-BC23-3E33EDDC881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AAD6DFC-D512-449D-8372-B7C41E90A1FE}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="893">
   <si>
     <t>SITE-ID</t>
   </si>
@@ -1300,9 +1300,6 @@
     <t>ARTE lpojuca</t>
   </si>
   <si>
-    <t>Revisita LINK</t>
-  </si>
-  <si>
     <t>PEJBO0TC003</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>Sim, por enquanto apenas um Link mesmo... Quanto ao SWITCH de LAN do cliente, ele provavelmente ainda vai instalar, devido a mudança de endereço. Vamos deixar o Fortigate funcionando, mas sem conexão de LAN... Fala pro técnico questionar quem está acompanhando...</t>
+  </si>
+  <si>
+    <t>revisita link</t>
   </si>
 </sst>
 </file>
@@ -2958,117 +2958,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3446,14 +3336,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}" name="Tabela9" displayName="Tabela9" ref="A1:M385" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:M385" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}" name="Tabela9" displayName="Tabela9" ref="A1:M385" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M385" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ARTE Rio de Janeiro - Jacarepaguá"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1D7DBF8D-8C74-4B86-8CB4-51DD33FD3EBB}" name="SITE-ID" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{B439AEFD-389B-4C3F-B714-17313BB2A506}" name="LOCALIDADE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{78EE2819-CEFF-4FDF-B5AD-D50B785A8B68}" name="1º  Visita" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{527128F9-F3F8-40BB-9AC6-2E04EDD4DF78}" name="Obs" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{03C0DAA9-4377-4430-827E-4ADBF068B9DD}" name="Motivo_Padronizado" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{1D7DBF8D-8C74-4B86-8CB4-51DD33FD3EBB}" name="SITE-ID" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B439AEFD-389B-4C3F-B714-17313BB2A506}" name="LOCALIDADE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{78EE2819-CEFF-4FDF-B5AD-D50B785A8B68}" name="1º  Visita" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{527128F9-F3F8-40BB-9AC6-2E04EDD4DF78}" name="Obs" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{03C0DAA9-4377-4430-827E-4ADBF068B9DD}" name="Motivo_Padronizado" dataDxfId="8">
       <calculatedColumnFormula>IF(D2="","",IF(ISNUMBER(SEARCH("CANCELADO",UPPER(D2))),"CANCELADO",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(D2))),ISNUMBER(SEARCH("TLB",UPPER(D2))),ISNUMBER(SEARCH("LINK",UPPER(D2))),ISNUMBER(SEARCH("ROTA",UPPER(D2))),ISNUMBER(SEARCH("ENERGIA",UPPER(D2)))),OR(ISNUMBER(SEARCH("MVC",UPPER(D2))),ISNUMBER(SEARCH("FOTOS",UPPER(D2))),ISNUMBER(SEARCH("DOC",UPPER(D2))),ISNUMBER(SEARCH("TERMO",UPPER(D2))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(D2))),ISNUMBER(SEARCH("CORRECAO",UPPER(D2))))),"🔴🟠 Misto (Telebras + MVC)",
 IF(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(D2))),ISNUMBER(SEARCH("TLB",UPPER(D2))),ISNUMBER(SEARCH("LINK",UPPER(D2))),ISNUMBER(SEARCH("ROTA",UPPER(D2))),ISNUMBER(SEARCH("ENERGIA",UPPER(D2)))),"🔴 Infraestrutura (Telebras)",
 IF(OR(ISNUMBER(SEARCH("MVC",UPPER(D2))),ISNUMBER(SEARCH("FOTOS",UPPER(D2))),ISNUMBER(SEARCH("DOC",UPPER(D2))),ISNUMBER(SEARCH("TERMO",UPPER(D2))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(D2))),ISNUMBER(SEARCH("CORRECAO",UPPER(D2)))),"🟠 Pendência Operacional (MVC)",
@@ -3461,9 +3357,9 @@
 IF(OR(ISNUMBER(SEARCH("FINALIZADO",UPPER(D2))),ISNUMBER(SEARCH("FINALIZADA",UPPER(D2))),ISNUMBER(SEARCH("MIGRADA",UPPER(D2)))),"✅ Concluído",
 "A Verificar")))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{549D793A-AC01-4A60-A0FA-597C2D9F1A23}" name="2º Visita" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{74ABAEA9-5A91-4E06-A3EB-BB6C9EED4C82}" name="Obs2" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{01F64C9C-5FCA-49D5-B98C-5BB02CAAEA97}" name="Motivo_Padronizado2" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{549D793A-AC01-4A60-A0FA-597C2D9F1A23}" name="2º Visita" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{74ABAEA9-5A91-4E06-A3EB-BB6C9EED4C82}" name="Obs2" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{01F64C9C-5FCA-49D5-B98C-5BB02CAAEA97}" name="Motivo_Padronizado2" dataDxfId="5">
       <calculatedColumnFormula>IF(G2="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G2))),ISNUMBER(SEARCH("TLB",UPPER(G2))),ISNUMBER(SEARCH("LINK",UPPER(G2))),ISNUMBER(SEARCH("ROTA",UPPER(G2))),ISNUMBER(SEARCH("ENERGIA",UPPER(G2)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G2))),ISNUMBER(SEARCH("FOTOS",UPPER(G2))),ISNUMBER(SEARCH("DOC",UPPER(G2))),ISNUMBER(SEARCH("TERMO",UPPER(G2))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G2))),ISNUMBER(SEARCH("CORRECAO",UPPER(G2))))),"🔴🟠 Misto (Telebras + MVC)",
  IF(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G2))),ISNUMBER(SEARCH("TLB",UPPER(G2))),ISNUMBER(SEARCH("LINK",UPPER(G2))),ISNUMBER(SEARCH("ROTA",UPPER(G2))),ISNUMBER(SEARCH("ENERGIA",UPPER(G2)))),"🔴 Infraestrutura (Telebras)",
  IF(OR(ISNUMBER(SEARCH("MVC",UPPER(G2))),ISNUMBER(SEARCH("FOTOS",UPPER(G2))),ISNUMBER(SEARCH("DOC",UPPER(G2))),ISNUMBER(SEARCH("TERMO",UPPER(G2))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G2))),ISNUMBER(SEARCH("CORRECAO",UPPER(G2)))),"🟠 Pendência Operacional (MVC)",
@@ -3471,17 +3367,17 @@
  IF(OR(ISNUMBER(SEARCH("FINALIZADO",UPPER(G2))),ISNUMBER(SEARCH("FINALIZADA",UPPER(G2))),ISNUMBER(SEARCH("MIGRADA",UPPER(G2)))),"✅ Concluído",
  "Outros / A Verificar"))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCB3EC63-F01E-4B64-92CB-8744F3A73749}" name="3º Visita" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{03B17354-30FD-4887-BBDF-7D9AA8304C3C}" name="Obs3" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{FAED45E3-1D21-4156-B5AD-270152ADC9B0}" name="Motivo_Padronizado3" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{BCB3EC63-F01E-4B64-92CB-8744F3A73749}" name="3º Visita" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{03B17354-30FD-4887-BBDF-7D9AA8304C3C}" name="Obs3" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{FAED45E3-1D21-4156-B5AD-270152ADC9B0}" name="Motivo_Padronizado3" dataDxfId="2">
       <calculatedColumnFormula>IF(J2="","",IF(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(J2))), ISNUMBER(SEARCH("TLB",UPPER(J2))), ISNUMBER(SEARCH("LINK",UPPER(J2))), ISNUMBER(SEARCH("ROTA",UPPER(J2))), ISNUMBER(SEARCH("ENERGIA",UPPER(J2)))), "🔴 Infraestrutura (Telebras)",
  IF(OR(ISNUMBER(SEARCH("MVC",UPPER(J2))), ISNUMBER(SEARCH("FOTOS",UPPER(J2))), ISNUMBER(SEARCH("DOC",UPPER(J2))), ISNUMBER(SEARCH("TERMO",UPPER(J2))), ISNUMBER(SEARCH("CORREÇÃO",UPPER(J2))), ISNUMBER(SEARCH("CORRECAO",UPPER(J2)))), "🟠 Pendência Operacional (MVC)",
   IF(OR(ISNUMBER(SEARCH("FECHADO",UPPER(J2))), ISNUMBER(SEARCH("HORÁRIO",UPPER(J2))), ISNUMBER(SEARCH("TARDE",UPPER(J2))), ISNUMBER(SEARCH("CORREIOS",UPPER(J2))), ISNUMBER(SEARCH("MATERIAL",UPPER(J2)))), "🟡 Acesso / Logística",
    IF(OR(ISNUMBER(SEARCH("FINALIZADO",UPPER(J2))), ISNUMBER(SEARCH("MIGRADA",UPPER(J2)))), "✅ Concluído",
     "Outros / A Verificar")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B78FA64E-AD3A-408D-A428-A118DCC628C8}" name="4º Visita" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{CB0C110C-DF1E-4AB4-B1FA-56537C0271C1}" name="Obs4" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{B78FA64E-AD3A-408D-A428-A118DCC628C8}" name="4º Visita" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{CB0C110C-DF1E-4AB4-B1FA-56537C0271C1}" name="Obs4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3818,7 +3714,7 @@
   <dimension ref="A1:M393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G386" sqref="G386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -3860,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
@@ -3869,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -3878,7 +3774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3924,7 +3820,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3846,7 @@
         <v>45943</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H3" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3969,7 +3865,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3980,7 +3876,7 @@
         <v>45810</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4005,7 +3901,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -4041,7 +3937,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -4070,7 +3966,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -4102,7 +3998,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -4134,7 +4030,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -4166,7 +4062,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -4198,7 +4094,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -4234,7 +4130,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -4266,7 +4162,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -4298,7 +4194,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -4330,7 +4226,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -4341,7 +4237,7 @@
         <v>45862</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4362,7 +4258,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
@@ -4398,7 +4294,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -4430,7 +4326,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -4462,7 +4358,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -4494,7 +4390,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -4526,7 +4422,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -4558,7 +4454,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -4590,7 +4486,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -4630,7 +4526,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
@@ -4662,7 +4558,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
@@ -4673,7 +4569,7 @@
         <v>45825</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4694,7 +4590,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -4730,7 +4626,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
@@ -4770,7 +4666,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>72</v>
       </c>
@@ -4791,7 +4687,7 @@
         <v>45884</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4806,7 +4702,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
@@ -4838,7 +4734,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
@@ -4870,7 +4766,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -4881,7 +4777,7 @@
         <v>45820</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4906,7 +4802,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
@@ -4935,7 +4831,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>83</v>
       </c>
@@ -4946,7 +4842,7 @@
         <v>45810</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4971,7 +4867,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
@@ -4999,7 +4895,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
@@ -5010,7 +4906,7 @@
         <v>45811</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5020,7 +4916,7 @@
         <v>45937</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5035,7 +4931,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -5046,7 +4942,7 @@
         <v>45824</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5067,7 +4963,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -5095,7 +4991,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>93</v>
       </c>
@@ -5127,7 +5023,7 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>95</v>
       </c>
@@ -5159,7 +5055,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>97</v>
       </c>
@@ -5191,7 +5087,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>99</v>
       </c>
@@ -5223,7 +5119,7 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
@@ -5255,7 +5151,7 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
@@ -5287,7 +5183,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
@@ -5319,7 +5215,7 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>107</v>
       </c>
@@ -5351,7 +5247,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>109</v>
       </c>
@@ -5362,7 +5258,7 @@
         <v>45811</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5387,7 +5283,7 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>111</v>
       </c>
@@ -5398,7 +5294,7 @@
         <v>45810</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5423,7 +5319,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>113</v>
       </c>
@@ -5434,7 +5330,7 @@
         <v>45804</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5455,7 +5351,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>115</v>
       </c>
@@ -5487,7 +5383,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>117</v>
       </c>
@@ -5519,7 +5415,7 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>119</v>
       </c>
@@ -5551,7 +5447,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -5583,7 +5479,7 @@
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>123</v>
       </c>
@@ -5594,7 +5490,7 @@
         <v>45824</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5619,7 +5515,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>125</v>
       </c>
@@ -5664,7 +5560,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>129</v>
       </c>
@@ -5675,7 +5571,7 @@
         <v>45859</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E55" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5705,7 +5601,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>131</v>
       </c>
@@ -5737,7 +5633,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>131</v>
       </c>
@@ -5769,7 +5665,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>131</v>
       </c>
@@ -5801,7 +5697,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>134</v>
       </c>
@@ -5833,7 +5729,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>136</v>
       </c>
@@ -5865,7 +5761,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>138</v>
       </c>
@@ -5897,7 +5793,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>140</v>
       </c>
@@ -5929,7 +5825,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>142</v>
       </c>
@@ -5970,7 +5866,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>144</v>
       </c>
@@ -6002,7 +5898,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>146</v>
       </c>
@@ -6034,7 +5930,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>148</v>
       </c>
@@ -6075,7 +5971,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>150</v>
       </c>
@@ -6086,7 +5982,7 @@
         <v>45798</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E130" si="5">IF(D67="","",IF(ISNUMBER(SEARCH("CANCELADO",UPPER(D67))),"CANCELADO",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(D67))),ISNUMBER(SEARCH("TLB",UPPER(D67))),ISNUMBER(SEARCH("LINK",UPPER(D67))),ISNUMBER(SEARCH("ROTA",UPPER(D67))),ISNUMBER(SEARCH("ENERGIA",UPPER(D67)))),OR(ISNUMBER(SEARCH("MVC",UPPER(D67))),ISNUMBER(SEARCH("FOTOS",UPPER(D67))),ISNUMBER(SEARCH("DOC",UPPER(D67))),ISNUMBER(SEARCH("TERMO",UPPER(D67))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(D67))),ISNUMBER(SEARCH("CORRECAO",UPPER(D67))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -6121,7 +6017,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>152</v>
       </c>
@@ -6132,7 +6028,7 @@
         <v>45821</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6157,7 +6053,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>154</v>
       </c>
@@ -6168,7 +6064,7 @@
         <v>45833</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6193,7 +6089,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>156</v>
       </c>
@@ -6229,7 +6125,7 @@
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>156</v>
       </c>
@@ -6261,7 +6157,7 @@
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>160</v>
       </c>
@@ -6272,7 +6168,7 @@
         <v>45817</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E72" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6302,7 +6198,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>162</v>
       </c>
@@ -6313,7 +6209,7 @@
         <v>45874</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E73" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6334,7 +6230,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>164</v>
       </c>
@@ -6366,7 +6262,7 @@
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>166</v>
       </c>
@@ -6377,7 +6273,7 @@
         <v>45814</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E75" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6398,7 +6294,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>169</v>
       </c>
@@ -6430,7 +6326,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>171</v>
       </c>
@@ -6462,7 +6358,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>173</v>
       </c>
@@ -6494,7 +6390,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>175</v>
       </c>
@@ -6505,7 +6401,7 @@
         <v>45859</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E79" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6535,7 +6431,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>177</v>
       </c>
@@ -6546,7 +6442,7 @@
         <v>45833</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E80" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6567,7 +6463,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>179</v>
       </c>
@@ -6599,7 +6495,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>181</v>
       </c>
@@ -6631,7 +6527,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>183</v>
       </c>
@@ -6663,7 +6559,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>185</v>
       </c>
@@ -6695,7 +6591,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>187</v>
       </c>
@@ -6706,7 +6602,7 @@
         <v>45810</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E85" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6736,7 +6632,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>189</v>
       </c>
@@ -6747,7 +6643,7 @@
         <v>45833</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6768,7 +6664,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>191</v>
       </c>
@@ -6800,7 +6696,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" ht="96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>193</v>
       </c>
@@ -6811,7 +6707,7 @@
         <v>45845</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6821,7 +6717,7 @@
         <v>45832</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H88" s="11" t="str">
         <f t="shared" ref="H88:H96" si="7">IF(G88="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G88))),ISNUMBER(SEARCH("TLB",UPPER(G88))),ISNUMBER(SEARCH("LINK",UPPER(G88))),ISNUMBER(SEARCH("ROTA",UPPER(G88))),ISNUMBER(SEARCH("ENERGIA",UPPER(G88)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G88))),ISNUMBER(SEARCH("FOTOS",UPPER(G88))),ISNUMBER(SEARCH("DOC",UPPER(G88))),ISNUMBER(SEARCH("TERMO",UPPER(G88))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G88))),ISNUMBER(SEARCH("CORRECAO",UPPER(G88))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -6845,7 +6741,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>196</v>
       </c>
@@ -6866,7 +6762,7 @@
         <v>45869</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H89" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6881,7 +6777,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>199</v>
       </c>
@@ -6892,7 +6788,7 @@
         <v>45811</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6917,7 +6813,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>201</v>
       </c>
@@ -6953,7 +6849,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>205</v>
       </c>
@@ -6964,7 +6860,7 @@
         <v>45814</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6989,7 +6885,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>207</v>
       </c>
@@ -7025,7 +6921,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>209</v>
       </c>
@@ -7036,7 +6932,7 @@
         <v>45812</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="5"/>
@@ -7061,7 +6957,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>211</v>
       </c>
@@ -7072,7 +6968,7 @@
         <v>45861</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="5"/>
@@ -7097,7 +6993,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>213</v>
       </c>
@@ -7133,7 +7029,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>215</v>
       </c>
@@ -7165,7 +7061,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>217</v>
       </c>
@@ -7206,7 +7102,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>219</v>
       </c>
@@ -7238,7 +7134,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>221</v>
       </c>
@@ -7270,7 +7166,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>223</v>
       </c>
@@ -7281,7 +7177,7 @@
         <v>45818</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="5"/>
@@ -7302,7 +7198,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>225</v>
       </c>
@@ -7334,7 +7230,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>227</v>
       </c>
@@ -7366,7 +7262,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>229</v>
       </c>
@@ -7407,7 +7303,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>233</v>
       </c>
@@ -7447,7 +7343,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>235</v>
       </c>
@@ -7479,7 +7375,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>238</v>
       </c>
@@ -7511,7 +7407,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>240</v>
       </c>
@@ -7543,7 +7439,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>242</v>
       </c>
@@ -7575,7 +7471,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>244</v>
       </c>
@@ -7607,7 +7503,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>246</v>
       </c>
@@ -7648,7 +7544,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>248</v>
       </c>
@@ -7680,7 +7576,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>250</v>
       </c>
@@ -7712,7 +7608,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>252</v>
       </c>
@@ -7744,7 +7640,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>254</v>
       </c>
@@ -7755,7 +7651,7 @@
         <v>45810</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E115" s="9" t="str">
         <f t="shared" si="5"/>
@@ -7765,7 +7661,7 @@
         <v>45939</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H115" s="11" t="str">
         <f>IF(G115="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G115))),ISNUMBER(SEARCH("TLB",UPPER(G115))),ISNUMBER(SEARCH("LINK",UPPER(G115))),ISNUMBER(SEARCH("ROTA",UPPER(G115))),ISNUMBER(SEARCH("ENERGIA",UPPER(G115)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G115))),ISNUMBER(SEARCH("FOTOS",UPPER(G115))),ISNUMBER(SEARCH("DOC",UPPER(G115))),ISNUMBER(SEARCH("TERMO",UPPER(G115))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G115))),ISNUMBER(SEARCH("CORRECAO",UPPER(G115))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -7789,7 +7685,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>256</v>
       </c>
@@ -7821,7 +7717,7 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>258</v>
       </c>
@@ -7853,7 +7749,7 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>260</v>
       </c>
@@ -7885,7 +7781,7 @@
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>262</v>
       </c>
@@ -7896,7 +7792,7 @@
         <v>45813</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="5"/>
@@ -7926,7 +7822,7 @@
       <c r="L119" s="11"/>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>264</v>
       </c>
@@ -7937,7 +7833,7 @@
         <v>45915</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E120" s="9" t="str">
         <f t="shared" si="5"/>
@@ -7958,7 +7854,7 @@
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>266</v>
       </c>
@@ -7990,7 +7886,7 @@
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>268</v>
       </c>
@@ -8001,7 +7897,7 @@
         <v>45817</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" si="5"/>
@@ -8022,7 +7918,7 @@
       <c r="L122" s="11"/>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>270</v>
       </c>
@@ -8033,7 +7929,7 @@
         <v>45820</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="5"/>
@@ -8063,7 +7959,7 @@
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>272</v>
       </c>
@@ -8095,7 +7991,7 @@
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>274</v>
       </c>
@@ -8106,7 +8002,7 @@
         <v>45821</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="5"/>
@@ -8140,7 +8036,7 @@
       <c r="L125" s="11"/>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>278</v>
       </c>
@@ -8151,7 +8047,7 @@
         <v>45817</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="5"/>
@@ -8172,7 +8068,7 @@
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>280</v>
       </c>
@@ -8183,7 +8079,7 @@
         <v>45812</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="5"/>
@@ -8204,7 +8100,7 @@
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>282</v>
       </c>
@@ -8236,7 +8132,7 @@
       <c r="L128" s="11"/>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>284</v>
       </c>
@@ -8264,7 +8160,7 @@
       <c r="L129" s="11"/>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>286</v>
       </c>
@@ -8305,7 +8201,7 @@
       <c r="L130" s="11"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>288</v>
       </c>
@@ -8342,7 +8238,7 @@
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>290</v>
       </c>
@@ -8374,7 +8270,7 @@
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>292</v>
       </c>
@@ -8406,7 +8302,7 @@
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>294</v>
       </c>
@@ -8447,7 +8343,7 @@
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>297</v>
       </c>
@@ -8479,7 +8375,7 @@
       <c r="L135" s="11"/>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>299</v>
       </c>
@@ -8511,7 +8407,7 @@
       <c r="L136" s="11"/>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>301</v>
       </c>
@@ -8552,7 +8448,7 @@
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>304</v>
       </c>
@@ -8584,7 +8480,7 @@
       <c r="L138" s="11"/>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>306</v>
       </c>
@@ -8595,7 +8491,7 @@
         <v>45880</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E139" s="9" t="str">
         <f t="shared" si="11"/>
@@ -8629,7 +8525,7 @@
       <c r="L139" s="11"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>308</v>
       </c>
@@ -8661,7 +8557,7 @@
       <c r="L140" s="11"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>311</v>
       </c>
@@ -8693,7 +8589,7 @@
       <c r="L141" s="11"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>313</v>
       </c>
@@ -8704,7 +8600,7 @@
         <v>45881</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" si="11"/>
@@ -8729,7 +8625,7 @@
       <c r="L142" s="11"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>315</v>
       </c>
@@ -8740,7 +8636,7 @@
         <v>45884</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="11"/>
@@ -8761,7 +8657,7 @@
       <c r="L143" s="11"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>317</v>
       </c>
@@ -8793,7 +8689,7 @@
       <c r="L144" s="11"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>319</v>
       </c>
@@ -8825,7 +8721,7 @@
       <c r="L145" s="11"/>
       <c r="M145" s="11"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>321</v>
       </c>
@@ -8857,7 +8753,7 @@
       <c r="L146" s="11"/>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>323</v>
       </c>
@@ -8889,7 +8785,7 @@
       <c r="L147" s="11"/>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>325</v>
       </c>
@@ -8921,7 +8817,7 @@
       <c r="L148" s="11"/>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>327</v>
       </c>
@@ -8953,7 +8849,7 @@
       <c r="L149" s="11"/>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>329</v>
       </c>
@@ -8985,7 +8881,7 @@
       <c r="L150" s="11"/>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>331</v>
       </c>
@@ -9017,7 +8913,7 @@
       <c r="L151" s="11"/>
       <c r="M151" s="11"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>333</v>
       </c>
@@ -9049,7 +8945,7 @@
       <c r="L152" s="11"/>
       <c r="M152" s="11"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>335</v>
       </c>
@@ -9060,7 +8956,7 @@
         <v>45803</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9081,7 +8977,7 @@
       <c r="L153" s="11"/>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>337</v>
       </c>
@@ -9113,7 +9009,7 @@
       <c r="L154" s="11"/>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>339</v>
       </c>
@@ -9145,7 +9041,7 @@
       <c r="L155" s="11"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>341</v>
       </c>
@@ -9177,7 +9073,7 @@
       <c r="L156" s="11"/>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>343</v>
       </c>
@@ -9188,7 +9084,7 @@
         <v>45825</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E157" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9209,7 +9105,7 @@
       <c r="L157" s="11"/>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>345</v>
       </c>
@@ -9241,7 +9137,7 @@
       <c r="L158" s="11"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>347</v>
       </c>
@@ -9282,7 +9178,7 @@
       <c r="L159" s="11"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>350</v>
       </c>
@@ -9318,7 +9214,7 @@
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>352</v>
       </c>
@@ -9329,7 +9225,7 @@
         <v>45847</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E161" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9358,7 +9254,7 @@
       <c r="L161" s="11"/>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>355</v>
       </c>
@@ -9369,7 +9265,7 @@
         <v>45814</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E162" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9398,7 +9294,7 @@
       <c r="L162" s="11"/>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>358</v>
       </c>
@@ -9434,7 +9330,7 @@
       <c r="L163" s="11"/>
       <c r="M163" s="11"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>361</v>
       </c>
@@ -9466,7 +9362,7 @@
       <c r="L164" s="11"/>
       <c r="M164" s="11"/>
     </row>
-    <row r="165" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>363</v>
       </c>
@@ -9477,7 +9373,7 @@
         <v>45856</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E165" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9498,7 +9394,7 @@
       <c r="L165" s="11"/>
       <c r="M165" s="11"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>365</v>
       </c>
@@ -9530,7 +9426,7 @@
       <c r="L166" s="11"/>
       <c r="M166" s="11"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>367</v>
       </c>
@@ -9541,7 +9437,7 @@
         <v>45800</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E167" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9562,7 +9458,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>369</v>
       </c>
@@ -9594,7 +9490,7 @@
       <c r="L168" s="11"/>
       <c r="M168" s="11"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>371</v>
       </c>
@@ -9635,7 +9531,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
     </row>
-    <row r="170" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>374</v>
       </c>
@@ -9646,7 +9542,7 @@
         <v>45807</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E170" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9671,7 +9567,7 @@
       <c r="L170" s="11"/>
       <c r="M170" s="11"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>376</v>
       </c>
@@ -9682,7 +9578,7 @@
         <v>45812</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E171" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9703,7 +9599,7 @@
       <c r="L171" s="11"/>
       <c r="M171" s="11"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>378</v>
       </c>
@@ -9735,7 +9631,7 @@
       <c r="L172" s="11"/>
       <c r="M172" s="11"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>380</v>
       </c>
@@ -9767,7 +9663,7 @@
       <c r="L173" s="11"/>
       <c r="M173" s="11"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>382</v>
       </c>
@@ -9799,7 +9695,7 @@
       <c r="L174" s="11"/>
       <c r="M174" s="11"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>384</v>
       </c>
@@ -9810,7 +9706,7 @@
         <v>45824</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E175" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9840,7 +9736,7 @@
       <c r="L175" s="11"/>
       <c r="M175" s="11"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>386</v>
       </c>
@@ -9872,7 +9768,7 @@
       <c r="L176" s="11"/>
       <c r="M176" s="11"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>388</v>
       </c>
@@ -9883,7 +9779,7 @@
         <v>45821</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E177" s="9" t="str">
         <f t="shared" si="11"/>
@@ -9904,7 +9800,7 @@
       <c r="L177" s="11"/>
       <c r="M177" s="11"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>390</v>
       </c>
@@ -9936,7 +9832,7 @@
       <c r="L178" s="11"/>
       <c r="M178" s="11"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>392</v>
       </c>
@@ -9968,7 +9864,7 @@
       <c r="L179" s="11"/>
       <c r="M179" s="11"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>394</v>
       </c>
@@ -10000,7 +9896,7 @@
       <c r="L180" s="11"/>
       <c r="M180" s="11"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>396</v>
       </c>
@@ -10011,7 +9907,7 @@
         <v>45819</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E181" s="9" t="str">
         <f t="shared" si="11"/>
@@ -10032,7 +9928,7 @@
       <c r="L181" s="11"/>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>398</v>
       </c>
@@ -10064,7 +9960,7 @@
       <c r="L182" s="11"/>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>400</v>
       </c>
@@ -10096,7 +9992,7 @@
       <c r="L183" s="11"/>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>402</v>
       </c>
@@ -10128,7 +10024,7 @@
       <c r="L184" s="11"/>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>404</v>
       </c>
@@ -10160,7 +10056,7 @@
       <c r="L185" s="11"/>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>406</v>
       </c>
@@ -10192,7 +10088,7 @@
       <c r="L186" s="11"/>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>408</v>
       </c>
@@ -10203,7 +10099,7 @@
         <v>45866</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E187" s="9" t="str">
         <f t="shared" si="11"/>
@@ -10233,18 +10129,18 @@
       <c r="L187" s="11"/>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="C188" s="8">
         <v>45817</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E188" s="9" t="str">
         <f t="shared" si="11"/>
@@ -10273,12 +10169,12 @@
       <c r="L188" s="11"/>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="C189" s="8">
         <v>45798</v>
@@ -10305,18 +10201,18 @@
       <c r="L189" s="11"/>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="C190" s="8">
         <v>45869</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E190" s="9" t="str">
         <f t="shared" si="11"/>
@@ -10337,12 +10233,12 @@
       <c r="L190" s="11"/>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="C191" s="8">
         <v>45807</v>
@@ -10369,12 +10265,12 @@
       <c r="L191" s="11"/>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="C192" s="8">
         <v>45851</v>
@@ -10401,12 +10297,12 @@
       <c r="L192" s="11"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B193" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="C193" s="8">
         <v>45790</v>
@@ -10433,18 +10329,18 @@
       <c r="L193" s="11"/>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="C194" s="8">
         <v>45813</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E194" s="9" t="str">
         <f t="shared" si="11"/>
@@ -10478,12 +10374,12 @@
       <c r="L194" s="11"/>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="C195" s="8">
         <v>45812</v>
@@ -10520,12 +10416,12 @@
       <c r="L195" s="11"/>
       <c r="M195" s="11"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B196" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="C196" s="8">
         <v>45806</v>
@@ -10552,12 +10448,12 @@
       <c r="L196" s="11"/>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="C197" s="8">
         <v>45811</v>
@@ -10584,18 +10480,18 @@
       <c r="L197" s="11"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B198" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="C198" s="8">
         <v>45819</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E198" s="9" t="str">
         <f t="shared" si="15"/>
@@ -10625,12 +10521,12 @@
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="C199" s="8">
         <v>45800</v>
@@ -10657,12 +10553,12 @@
       <c r="L199" s="11"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="C200" s="8">
         <v>45824</v>
@@ -10689,12 +10585,12 @@
       <c r="L200" s="11"/>
       <c r="M200" s="11"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="C201" s="8">
         <v>45821</v>
@@ -10721,12 +10617,12 @@
       <c r="L201" s="11"/>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="C202" s="8">
         <v>45811</v>
@@ -10753,12 +10649,12 @@
       <c r="L202" s="11"/>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="C203" s="8">
         <v>45803</v>
@@ -10785,12 +10681,12 @@
       <c r="L203" s="11"/>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B204" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="C204" s="8">
         <v>45814</v>
@@ -10817,12 +10713,12 @@
       <c r="L204" s="11"/>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="C205" s="8">
         <v>45791</v>
@@ -10849,12 +10745,12 @@
       <c r="L205" s="11"/>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B206" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="C206" s="8">
         <v>45869</v>
@@ -10881,12 +10777,12 @@
       <c r="L206" s="11"/>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="C207" s="8">
         <v>45868</v>
@@ -10913,18 +10809,18 @@
       <c r="L207" s="11"/>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="C208" s="8">
         <v>45870</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E208" s="9" t="str">
         <f t="shared" si="15"/>
@@ -10945,12 +10841,12 @@
       <c r="L208" s="11"/>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="C209" s="8">
         <v>45876</v>
@@ -10977,12 +10873,12 @@
       <c r="L209" s="11"/>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B210" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C210" s="8">
         <v>45877</v>
@@ -11009,12 +10905,12 @@
       <c r="L210" s="11"/>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="C211" s="8">
         <v>45806</v>
@@ -11041,12 +10937,12 @@
       <c r="L211" s="11"/>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B212" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="C212" s="8">
         <v>45776</v>
@@ -11082,12 +10978,12 @@
       <c r="L212" s="11"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="C213" s="8">
         <v>45875</v>
@@ -11114,12 +11010,12 @@
       <c r="L213" s="11"/>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="C214" s="8">
         <v>45807</v>
@@ -11146,12 +11042,12 @@
       <c r="L214" s="11"/>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="C215" s="8">
         <v>45874</v>
@@ -11178,12 +11074,12 @@
       <c r="L215" s="11"/>
       <c r="M215" s="11"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B216" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="C216" s="8">
         <v>45831</v>
@@ -11210,12 +11106,12 @@
       <c r="L216" s="11"/>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B217" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="C217" s="8">
         <v>45805</v>
@@ -11242,12 +11138,12 @@
       <c r="L217" s="11"/>
       <c r="M217" s="11"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="C218" s="8">
         <v>45798</v>
@@ -11283,18 +11179,18 @@
       <c r="L218" s="11"/>
       <c r="M218" s="11"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="C219" s="8">
         <v>45873</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E219" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11319,18 +11215,18 @@
       <c r="L219" s="11"/>
       <c r="M219" s="11"/>
     </row>
-    <row r="220" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B220" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="C220" s="8">
         <v>45895</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E220" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11340,7 +11236,7 @@
         <v>45909</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H220" s="11" t="str">
         <f t="shared" si="17"/>
@@ -11355,12 +11251,12 @@
       <c r="L220" s="11"/>
       <c r="M220" s="11"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="C221" s="8">
         <v>45894</v>
@@ -11387,18 +11283,18 @@
       <c r="L221" s="11"/>
       <c r="M221" s="11"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B222" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="C222" s="8">
         <v>45896</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E222" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11428,18 +11324,18 @@
       <c r="L222" s="11"/>
       <c r="M222" s="11"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="C223" s="8">
         <v>45877</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E223" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11460,18 +11356,18 @@
       <c r="L223" s="11"/>
       <c r="M223" s="11"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B224" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="C224" s="8">
         <v>45825</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E224" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11492,18 +11388,18 @@
       <c r="L224" s="11"/>
       <c r="M224" s="11"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="C225" s="8">
         <v>45841</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E225" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11533,18 +11429,18 @@
       <c r="L225" s="11"/>
       <c r="M225" s="11"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="C226" s="8">
         <v>45831</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E226" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11565,12 +11461,12 @@
       <c r="L226" s="11"/>
       <c r="M226" s="11"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="C227" s="8">
         <v>45813</v>
@@ -11597,12 +11493,12 @@
       <c r="L227" s="11"/>
       <c r="M227" s="11"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="C228" s="8">
         <v>45804</v>
@@ -11629,12 +11525,12 @@
       <c r="L228" s="11"/>
       <c r="M228" s="11"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="C229" s="8">
         <v>45821</v>
@@ -11661,12 +11557,12 @@
       <c r="L229" s="11"/>
       <c r="M229" s="11"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="C230" s="8">
         <v>45819</v>
@@ -11693,12 +11589,12 @@
       <c r="L230" s="11"/>
       <c r="M230" s="11"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="C231" s="8">
         <v>45812</v>
@@ -11725,12 +11621,12 @@
       <c r="L231" s="11"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="C232" s="8">
         <v>45812</v>
@@ -11757,18 +11653,18 @@
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="C233" s="8">
         <v>45859</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E233" s="9" t="str">
         <f t="shared" si="15"/>
@@ -11789,12 +11685,12 @@
       <c r="L233" s="11"/>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="C234" s="8">
         <v>45806</v>
@@ -11821,12 +11717,12 @@
       <c r="L234" s="11"/>
       <c r="M234" s="11"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B235" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="C235" s="8">
         <v>45805</v>
@@ -11862,12 +11758,12 @@
       <c r="L235" s="11"/>
       <c r="M235" s="11"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B236" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="C236" s="8">
         <v>45845</v>
@@ -11894,12 +11790,12 @@
       <c r="L236" s="11"/>
       <c r="M236" s="11"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="C237" s="8">
         <v>45817</v>
@@ -11935,12 +11831,12 @@
       <c r="L237" s="11"/>
       <c r="M237" s="11"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="C238" s="8">
         <v>45813</v>
@@ -11967,12 +11863,12 @@
       <c r="L238" s="11"/>
       <c r="M238" s="11"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B239" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="C239" s="8">
         <v>45818</v>
@@ -12008,18 +11904,18 @@
       <c r="L239" s="11"/>
       <c r="M239" s="11"/>
     </row>
-    <row r="240" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="C240" s="8">
         <v>45800</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E240" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12040,12 +11936,12 @@
       <c r="L240" s="11"/>
       <c r="M240" s="11"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B241" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="C241" s="8">
         <v>45792</v>
@@ -12081,18 +11977,18 @@
       <c r="L241" s="11"/>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B242" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="C242" s="8">
         <v>45826</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E242" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12102,7 +11998,7 @@
         <v>45888</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H242" s="11" t="str">
         <f t="shared" si="18"/>
@@ -12117,12 +12013,12 @@
       <c r="L242" s="11"/>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B243" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="C243" s="8">
         <v>45799</v>
@@ -12153,12 +12049,12 @@
       <c r="L243" s="11"/>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B244" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="C244" s="8">
         <v>45819</v>
@@ -12185,12 +12081,12 @@
       <c r="L244" s="11"/>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="C245" s="8">
         <v>45826</v>
@@ -12217,12 +12113,12 @@
       <c r="L245" s="11"/>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B246" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="C246" s="8">
         <v>45821</v>
@@ -12249,18 +12145,18 @@
       <c r="L246" s="11"/>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B247" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="C247" s="8">
         <v>45825</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E247" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12281,18 +12177,18 @@
       <c r="L247" s="11"/>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B248" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="C248" s="8">
         <v>45870</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E248" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12313,18 +12209,18 @@
       <c r="L248" s="11"/>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B249" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="C249" s="8">
         <v>45852</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E249" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12345,12 +12241,12 @@
       <c r="L249" s="11"/>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B250" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="C250" s="8">
         <v>45839</v>
@@ -12377,18 +12273,18 @@
       <c r="L250" s="11"/>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="C251" s="8">
         <v>45840</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E251" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12398,7 +12294,7 @@
         <v>45874</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H251" s="11" t="str">
         <f>IF(G251="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G251))),ISNUMBER(SEARCH("TLB",UPPER(G251))),ISNUMBER(SEARCH("LINK",UPPER(G251))),ISNUMBER(SEARCH("ROTA",UPPER(G251))),ISNUMBER(SEARCH("ENERGIA",UPPER(G251)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G251))),ISNUMBER(SEARCH("FOTOS",UPPER(G251))),ISNUMBER(SEARCH("DOC",UPPER(G251))),ISNUMBER(SEARCH("TERMO",UPPER(G251))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G251))),ISNUMBER(SEARCH("CORRECAO",UPPER(G251))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -12424,26 +12320,30 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B252" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="C252" s="8">
         <v>45880</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E252" s="9" t="str">
         <f t="shared" si="15"/>
         <v>🟠 Pendência Operacional (MVC)</v>
       </c>
-      <c r="F252" s="10"/>
-      <c r="G252" s="11"/>
+      <c r="F252" s="10">
+        <v>45989</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H252" s="11" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>✅ Concluído</v>
       </c>
       <c r="I252" s="10"/>
       <c r="J252" s="11"/>
@@ -12454,18 +12354,18 @@
       <c r="L252" s="11"/>
       <c r="M252" s="11"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="C253" s="8">
         <v>45832</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E253" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12475,7 +12375,7 @@
         <v>45873</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>410</v>
+        <v>892</v>
       </c>
       <c r="H253" s="11" t="str">
         <f>IF(G253="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G253))),ISNUMBER(SEARCH("TLB",UPPER(G253))),ISNUMBER(SEARCH("LINK",UPPER(G253))),ISNUMBER(SEARCH("ROTA",UPPER(G253))),ISNUMBER(SEARCH("ENERGIA",UPPER(G253)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G253))),ISNUMBER(SEARCH("FOTOS",UPPER(G253))),ISNUMBER(SEARCH("DOC",UPPER(G253))),ISNUMBER(SEARCH("TERMO",UPPER(G253))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G253))),ISNUMBER(SEARCH("CORRECAO",UPPER(G253))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -12495,18 +12395,18 @@
       <c r="L253" s="11"/>
       <c r="M253" s="11"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="C254" s="8">
         <v>45901</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E254" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12531,12 +12431,12 @@
       <c r="L254" s="11"/>
       <c r="M254" s="11"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B255" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="C255" s="8">
         <v>45848</v>
@@ -12563,18 +12463,18 @@
       <c r="L255" s="11"/>
       <c r="M255" s="11"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B256" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="C256" s="8">
         <v>45838</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E256" s="9" t="str">
         <f t="shared" si="15"/>
@@ -12595,12 +12495,12 @@
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="C257" s="8">
         <v>45820</v>
@@ -12627,12 +12527,12 @@
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B258" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="C258" s="8">
         <v>45849</v>
@@ -12668,18 +12568,18 @@
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B259" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="C259" s="8">
         <v>45923</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E259" s="9" t="str">
         <f t="shared" ref="E259:E262" si="21">IF(D259="","",IF(ISNUMBER(SEARCH("CANCELADO",UPPER(D259))),"CANCELADO",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(D259))),ISNUMBER(SEARCH("TLB",UPPER(D259))),ISNUMBER(SEARCH("LINK",UPPER(D259))),ISNUMBER(SEARCH("ROTA",UPPER(D259))),ISNUMBER(SEARCH("ENERGIA",UPPER(D259)))),OR(ISNUMBER(SEARCH("MVC",UPPER(D259))),ISNUMBER(SEARCH("FOTOS",UPPER(D259))),ISNUMBER(SEARCH("DOC",UPPER(D259))),ISNUMBER(SEARCH("TERMO",UPPER(D259))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(D259))),ISNUMBER(SEARCH("CORRECAO",UPPER(D259))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -12705,18 +12605,18 @@
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="C260" s="8">
         <v>45887</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E260" s="9" t="str">
         <f t="shared" si="21"/>
@@ -12737,12 +12637,12 @@
       <c r="L260" s="11"/>
       <c r="M260" s="11"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B261" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="C261" s="8">
         <v>45818</v>
@@ -12769,12 +12669,12 @@
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B262" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="C262" s="8">
         <v>45803</v>
@@ -12801,12 +12701,12 @@
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B263" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="9"/>
@@ -12834,18 +12734,18 @@
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
     </row>
-    <row r="264" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B264" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="C264" s="8">
         <v>45855</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E264" s="9" t="str">
         <f>IF(D264="","",IF(ISNUMBER(SEARCH("CANCELADO",UPPER(D264))),"CANCELADO",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(D264))),ISNUMBER(SEARCH("TLB",UPPER(D264))),ISNUMBER(SEARCH("LINK",UPPER(D264))),ISNUMBER(SEARCH("ROTA",UPPER(D264))),ISNUMBER(SEARCH("ENERGIA",UPPER(D264)))),OR(ISNUMBER(SEARCH("MVC",UPPER(D264))),ISNUMBER(SEARCH("FOTOS",UPPER(D264))),ISNUMBER(SEARCH("DOC",UPPER(D264))),ISNUMBER(SEARCH("TERMO",UPPER(D264))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(D264))),ISNUMBER(SEARCH("CORRECAO",UPPER(D264))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -12871,12 +12771,12 @@
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="C265" s="8">
         <v>45820</v>
@@ -12908,12 +12808,12 @@
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B266" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="C266" s="8">
         <v>45814</v>
@@ -12940,12 +12840,12 @@
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B267" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="C267" s="8">
         <v>45807</v>
@@ -12972,12 +12872,12 @@
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="C268" s="8">
         <v>45811</v>
@@ -13004,18 +12904,18 @@
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B269" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="C269" s="8">
         <v>45810</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E269" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13045,12 +12945,12 @@
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B270" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="C270" s="8">
         <v>45812</v>
@@ -13077,12 +12977,12 @@
       <c r="L270" s="11"/>
       <c r="M270" s="11"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B271" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="C271" s="8">
         <v>45790</v>
@@ -13109,18 +13009,18 @@
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
     </row>
-    <row r="272" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="C272" s="8">
         <v>45839</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E272" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13154,12 +13054,12 @@
       <c r="L272" s="11"/>
       <c r="M272" s="11"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B273" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="C273" s="8">
         <v>45846</v>
@@ -13186,18 +13086,18 @@
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B274" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="C274" s="8">
         <v>45813</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E274" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13227,18 +13127,18 @@
       <c r="L274" s="11"/>
       <c r="M274" s="11"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="C275" s="8">
         <v>45807</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E275" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13259,12 +13159,12 @@
       <c r="L275" s="11"/>
       <c r="M275" s="11"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B276" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="C276" s="8">
         <v>45786</v>
@@ -13291,12 +13191,12 @@
       <c r="L276" s="11"/>
       <c r="M276" s="11"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B277" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="C277" s="8">
         <v>45814</v>
@@ -13323,18 +13223,18 @@
       <c r="L277" s="11"/>
       <c r="M277" s="11"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B278" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="C278" s="8">
         <v>45782</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E278" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13364,18 +13264,18 @@
       <c r="L278" s="11"/>
       <c r="M278" s="11"/>
     </row>
-    <row r="279" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B279" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="C279" s="8">
         <v>45821</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E279" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13385,7 +13285,7 @@
         <v>45988</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H279" s="11" t="str">
         <f t="shared" si="19"/>
@@ -13400,12 +13300,12 @@
       <c r="L279" s="11"/>
       <c r="M279" s="11"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B280" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="C280" s="8">
         <v>45806</v>
@@ -13432,18 +13332,18 @@
       <c r="L280" s="11"/>
       <c r="M280" s="11"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B281" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="C281" s="8">
         <v>45903</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E281" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13464,18 +13364,18 @@
       <c r="L281" s="11"/>
       <c r="M281" s="11"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B282" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="C282" s="8">
         <v>45799</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E282" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13505,12 +13405,12 @@
       <c r="L282" s="11"/>
       <c r="M282" s="11"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B283" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="C283" s="8">
         <v>45889</v>
@@ -13537,12 +13437,12 @@
       <c r="L283" s="11"/>
       <c r="M283" s="11"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B284" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="C284" s="8">
         <v>45800</v>
@@ -13569,12 +13469,12 @@
       <c r="L284" s="11"/>
       <c r="M284" s="11"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B285" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="C285" s="8">
         <v>45887</v>
@@ -13601,18 +13501,18 @@
       <c r="L285" s="11"/>
       <c r="M285" s="11"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B286" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="C286" s="8">
         <v>45800</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E286" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13633,12 +13533,12 @@
       <c r="L286" s="11"/>
       <c r="M286" s="11"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B287" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="C287" s="8">
         <v>45791</v>
@@ -13665,12 +13565,12 @@
       <c r="L287" s="11"/>
       <c r="M287" s="11"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B288" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="C288" s="8">
         <v>45888</v>
@@ -13697,12 +13597,12 @@
       <c r="L288" s="11"/>
       <c r="M288" s="11"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B289" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="C289" s="8">
         <v>45784</v>
@@ -13729,12 +13629,12 @@
       <c r="L289" s="11"/>
       <c r="M289" s="11"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B290" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="C290" s="8">
         <v>45807</v>
@@ -13761,12 +13661,12 @@
       <c r="L290" s="11"/>
       <c r="M290" s="11"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B291" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="C291" s="8">
         <v>45803</v>
@@ -13793,12 +13693,12 @@
       <c r="L291" s="11"/>
       <c r="M291" s="11"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B292" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="C292" s="8">
         <v>45895</v>
@@ -13825,18 +13725,18 @@
       <c r="L292" s="11"/>
       <c r="M292" s="11"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B293" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="C293" s="8">
         <v>45804</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E293" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13866,12 +13766,12 @@
       <c r="L293" s="11"/>
       <c r="M293" s="11"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B294" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="C294" s="8">
         <v>45806</v>
@@ -13898,18 +13798,18 @@
       <c r="L294" s="11"/>
       <c r="M294" s="11"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B295" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="C295" s="8">
         <v>45798</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E295" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13939,18 +13839,18 @@
       <c r="L295" s="11"/>
       <c r="M295" s="11"/>
     </row>
-    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B296" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="C296" s="8">
         <v>45898</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E296" s="9" t="str">
         <f t="shared" si="22"/>
@@ -13971,12 +13871,12 @@
       <c r="L296" s="11"/>
       <c r="M296" s="11"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B297" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="C297" s="8">
         <v>45898</v>
@@ -14003,18 +13903,18 @@
       <c r="L297" s="11"/>
       <c r="M297" s="11"/>
     </row>
-    <row r="298" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B298" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="C298" s="8">
         <v>45883</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E298" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14035,12 +13935,12 @@
       <c r="L298" s="11"/>
       <c r="M298" s="11"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B299" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="B299" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="C299" s="8">
         <v>45817</v>
@@ -14067,12 +13967,12 @@
       <c r="L299" s="11"/>
       <c r="M299" s="11"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B300" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="C300" s="8">
         <v>45894</v>
@@ -14099,12 +13999,12 @@
       <c r="L300" s="11"/>
       <c r="M300" s="11"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B301" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="C301" s="8">
         <v>45805</v>
@@ -14131,18 +14031,18 @@
       <c r="L301" s="11"/>
       <c r="M301" s="11"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B302" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="C302" s="8">
         <v>45895</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E302" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14172,12 +14072,12 @@
       <c r="L302" s="11"/>
       <c r="M302" s="11"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="C303" s="8">
         <v>45890</v>
@@ -14204,18 +14104,18 @@
       <c r="L303" s="11"/>
       <c r="M303" s="11"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B304" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="C304" s="8">
         <v>45978</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E304" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14236,18 +14136,18 @@
       <c r="L304" s="11"/>
       <c r="M304" s="11"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B305" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>653</v>
       </c>
       <c r="C305" s="8">
         <v>45901</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E305" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14277,12 +14177,12 @@
       <c r="L305" s="11"/>
       <c r="M305" s="11"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B306" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="B306" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="C306" s="8">
         <v>45896</v>
@@ -14309,18 +14209,18 @@
       <c r="L306" s="11"/>
       <c r="M306" s="11"/>
     </row>
-    <row r="307" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B307" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="C307" s="8">
         <v>45909</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E307" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14330,7 +14230,7 @@
         <v>45916</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H307" s="11" t="str">
         <f t="shared" ref="H307:H309" si="23">IF(G307="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G307))),ISNUMBER(SEARCH("TLB",UPPER(G307))),ISNUMBER(SEARCH("LINK",UPPER(G307))),ISNUMBER(SEARCH("ROTA",UPPER(G307))),ISNUMBER(SEARCH("ENERGIA",UPPER(G307)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G307))),ISNUMBER(SEARCH("FOTOS",UPPER(G307))),ISNUMBER(SEARCH("DOC",UPPER(G307))),ISNUMBER(SEARCH("TERMO",UPPER(G307))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G307))),ISNUMBER(SEARCH("CORRECAO",UPPER(G307))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -14354,18 +14254,18 @@
       <c r="L307" s="11"/>
       <c r="M307" s="11"/>
     </row>
-    <row r="308" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B308" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="B308" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="C308" s="8">
         <v>45891</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E308" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14375,7 +14275,7 @@
         <v>45901</v>
       </c>
       <c r="G308" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H308" s="11" t="str">
         <f t="shared" si="23"/>
@@ -14390,18 +14290,18 @@
       <c r="L308" s="11"/>
       <c r="M308" s="11"/>
     </row>
-    <row r="309" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="C309" s="8">
         <v>45783</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E309" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14426,12 +14326,12 @@
       <c r="L309" s="11"/>
       <c r="M309" s="11"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B310" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="C310" s="8">
         <v>45888</v>
@@ -14458,12 +14358,12 @@
       <c r="L310" s="11"/>
       <c r="M310" s="11"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="C311" s="8">
         <v>45897</v>
@@ -14490,12 +14390,12 @@
       <c r="L311" s="11"/>
       <c r="M311" s="11"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B312" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="C312" s="8">
         <v>45888</v>
@@ -14522,12 +14422,12 @@
       <c r="L312" s="11"/>
       <c r="M312" s="11"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B313" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="C313" s="8">
         <v>45887</v>
@@ -14554,12 +14454,12 @@
       <c r="L313" s="11"/>
       <c r="M313" s="11"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B314" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="B314" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="C314" s="8">
         <v>45889</v>
@@ -14586,12 +14486,12 @@
       <c r="L314" s="11"/>
       <c r="M314" s="11"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B315" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="C315" s="8">
         <v>45979</v>
@@ -14618,12 +14518,12 @@
       <c r="L315" s="11"/>
       <c r="M315" s="11"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B316" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="C316" s="8">
         <v>45889</v>
@@ -14650,12 +14550,12 @@
       <c r="L316" s="11"/>
       <c r="M316" s="11"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B317" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="C317" s="8">
         <v>45897</v>
@@ -14682,12 +14582,12 @@
       <c r="L317" s="11"/>
       <c r="M317" s="11"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B318" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="B318" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="C318" s="8">
         <v>45895</v>
@@ -14714,18 +14614,18 @@
       <c r="L318" s="11"/>
       <c r="M318" s="11"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B319" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="B319" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="C319" s="8">
         <v>45887</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E319" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14746,12 +14646,12 @@
       <c r="L319" s="11"/>
       <c r="M319" s="11"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B320" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="B320" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="C320" s="8">
         <v>45890</v>
@@ -14778,12 +14678,12 @@
       <c r="L320" s="11"/>
       <c r="M320" s="11"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B321" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="C321" s="8">
         <v>45898</v>
@@ -14810,12 +14710,12 @@
       <c r="L321" s="11"/>
       <c r="M321" s="11"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B322" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="B322" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="C322" s="8">
         <v>45791</v>
@@ -14851,18 +14751,18 @@
       <c r="L322" s="11"/>
       <c r="M322" s="11"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B323" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="B323" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="C323" s="8">
         <v>45799</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E323" s="9" t="str">
         <f t="shared" si="22"/>
@@ -14892,12 +14792,12 @@
       <c r="L323" s="11"/>
       <c r="M323" s="11"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B324" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="B324" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="C324" s="8">
         <v>45817</v>
@@ -14924,12 +14824,12 @@
       <c r="L324" s="11"/>
       <c r="M324" s="11"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B325" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="C325" s="8">
         <v>45798</v>
@@ -14956,12 +14856,12 @@
       <c r="L325" s="11"/>
       <c r="M325" s="11"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="C326" s="8">
         <v>45818</v>
@@ -14988,18 +14888,18 @@
       <c r="L326" s="11"/>
       <c r="M326" s="11"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B327" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="C327" s="8">
         <v>45896</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E327" s="9" t="str">
         <f t="shared" si="22"/>
@@ -15020,12 +14920,12 @@
       <c r="L327" s="11"/>
       <c r="M327" s="11"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B328" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="B328" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="C328" s="8">
         <v>45894</v>
@@ -15052,18 +14952,18 @@
       <c r="L328" s="11"/>
       <c r="M328" s="11"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B329" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="C329" s="8">
         <v>45806</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E329" s="9" t="str">
         <f t="shared" ref="E329:E385" si="26">IF(D329="","",IF(ISNUMBER(SEARCH("CANCELADO",UPPER(D329))),"CANCELADO",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(D329))),ISNUMBER(SEARCH("TLB",UPPER(D329))),ISNUMBER(SEARCH("LINK",UPPER(D329))),ISNUMBER(SEARCH("ROTA",UPPER(D329))),ISNUMBER(SEARCH("ENERGIA",UPPER(D329)))),OR(ISNUMBER(SEARCH("MVC",UPPER(D329))),ISNUMBER(SEARCH("FOTOS",UPPER(D329))),ISNUMBER(SEARCH("DOC",UPPER(D329))),ISNUMBER(SEARCH("TERMO",UPPER(D329))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(D329))),ISNUMBER(SEARCH("CORRECAO",UPPER(D329))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -15078,7 +14978,7 @@
         <v>45817</v>
       </c>
       <c r="G329" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H329" s="11" t="str">
         <f t="shared" ref="H329:H330" si="27">IF(G329="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G329))),ISNUMBER(SEARCH("TLB",UPPER(G329))),ISNUMBER(SEARCH("LINK",UPPER(G329))),ISNUMBER(SEARCH("ROTA",UPPER(G329))),ISNUMBER(SEARCH("ENERGIA",UPPER(G329)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G329))),ISNUMBER(SEARCH("FOTOS",UPPER(G329))),ISNUMBER(SEARCH("DOC",UPPER(G329))),ISNUMBER(SEARCH("TERMO",UPPER(G329))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G329))),ISNUMBER(SEARCH("CORRECAO",UPPER(G329))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -15102,18 +15002,18 @@
       <c r="L329" s="11"/>
       <c r="M329" s="11"/>
     </row>
-    <row r="330" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="C330" s="8">
         <v>45884</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E330" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15138,12 +15038,12 @@
       <c r="L330" s="11"/>
       <c r="M330" s="11"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B331" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="B331" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="C331" s="8">
         <v>45811</v>
@@ -15170,18 +15070,18 @@
       <c r="L331" s="11"/>
       <c r="M331" s="11"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="B332" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="C332" s="8">
         <v>45903</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E332" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15202,18 +15102,18 @@
       <c r="L332" s="11"/>
       <c r="M332" s="11"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B333" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="C333" s="8">
         <v>45887</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E333" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15234,12 +15134,12 @@
       <c r="L333" s="11"/>
       <c r="M333" s="11"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="B334" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="C334" s="8">
         <v>45908</v>
@@ -15266,12 +15166,12 @@
       <c r="L334" s="11"/>
       <c r="M334" s="11"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="B335" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="C335" s="8">
         <v>45805</v>
@@ -15298,12 +15198,12 @@
       <c r="L335" s="11"/>
       <c r="M335" s="11"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="C336" s="8">
         <v>45803</v>
@@ -15330,12 +15230,12 @@
       <c r="L336" s="11"/>
       <c r="M336" s="11"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B337" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="B337" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="C337" s="8">
         <v>45904</v>
@@ -15362,12 +15262,12 @@
       <c r="L337" s="11"/>
       <c r="M337" s="11"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>723</v>
       </c>
       <c r="C338" s="8">
         <v>45818</v>
@@ -15394,18 +15294,18 @@
       <c r="L338" s="11"/>
       <c r="M338" s="11"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B339" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="B339" s="7" t="s">
-        <v>725</v>
       </c>
       <c r="C339" s="8">
         <v>45910</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E339" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15426,18 +15326,18 @@
       <c r="L339" s="11"/>
       <c r="M339" s="11"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="B340" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="C340" s="8">
         <v>45884</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E340" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15447,7 +15347,7 @@
         <v>45972</v>
       </c>
       <c r="G340" s="11" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="H340" s="11" t="str">
         <f>IF(G340="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G340))),ISNUMBER(SEARCH("TLB",UPPER(G340))),ISNUMBER(SEARCH("LINK",UPPER(G340))),ISNUMBER(SEARCH("ROTA",UPPER(G340))),ISNUMBER(SEARCH("ENERGIA",UPPER(G340)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G340))),ISNUMBER(SEARCH("FOTOS",UPPER(G340))),ISNUMBER(SEARCH("DOC",UPPER(G340))),ISNUMBER(SEARCH("TERMO",UPPER(G340))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G340))),ISNUMBER(SEARCH("CORRECAO",UPPER(G340))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -15456,7 +15356,7 @@
  IF(OR(ISNUMBER(SEARCH("FECHADO",UPPER(G340))),ISNUMBER(SEARCH("HORÁRIO",UPPER(G340))),ISNUMBER(SEARCH("TARDE",UPPER(G340))),ISNUMBER(SEARCH("CORREIOS",UPPER(G340))),ISNUMBER(SEARCH("MATERIAL",UPPER(G340))),ISNUMBER(SEARCH("REAGENDADA",UPPER(G340))),ISNUMBER(SEARCH("REAGENDADO",UPPER(G340))),ISNUMBER(SEARCH("ALLTECH",UPPER(G340))),ISNUMBER(SEARCH("MA",UPPER(G340))),ISNUMBER(SEARCH("SEFAZ",UPPER(G340)))),"🟡 Acesso / MA / Logística",
  IF(OR(ISNUMBER(SEARCH("FINALIZADO",UPPER(G340))),ISNUMBER(SEARCH("FINALIZADA",UPPER(G340))),ISNUMBER(SEARCH("MIGRADA",UPPER(G340)))),"✅ Concluído",
  "Outros / A Verificar"))))))</f>
-        <v>🔴 Infraestrutura (Telebras)</v>
+        <v>🟠 Pendência Operacional (MVC)</v>
       </c>
       <c r="I340" s="10"/>
       <c r="J340" s="11"/>
@@ -15467,12 +15367,12 @@
       <c r="L340" s="11"/>
       <c r="M340" s="11"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B341" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="B341" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="C341" s="8">
         <v>45806</v>
@@ -15499,18 +15399,18 @@
       <c r="L341" s="11"/>
       <c r="M341" s="11"/>
     </row>
-    <row r="342" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B342" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="B342" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="C342" s="8">
         <v>45916</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E342" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15531,18 +15431,18 @@
       <c r="L342" s="11"/>
       <c r="M342" s="11"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B343" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>733</v>
       </c>
       <c r="C343" s="8">
         <v>45883</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E343" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15572,12 +15472,12 @@
       <c r="L343" s="11"/>
       <c r="M343" s="11"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B344" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="B344" s="7" t="s">
-        <v>735</v>
       </c>
       <c r="C344" s="8">
         <v>45868</v>
@@ -15604,12 +15504,12 @@
       <c r="L344" s="11"/>
       <c r="M344" s="11"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B345" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>737</v>
       </c>
       <c r="C345" s="8">
         <v>45891</v>
@@ -15636,18 +15536,18 @@
       <c r="L345" s="11"/>
       <c r="M345" s="11"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B346" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="C346" s="8">
         <v>45833</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E346" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15668,18 +15568,18 @@
       <c r="L346" s="11"/>
       <c r="M346" s="11"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B347" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="B347" s="7" t="s">
-        <v>742</v>
       </c>
       <c r="C347" s="8">
         <v>45887</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E347" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15700,18 +15600,18 @@
       <c r="L347" s="11"/>
       <c r="M347" s="11"/>
     </row>
-    <row r="348" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B348" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="B348" s="7" t="s">
-        <v>744</v>
       </c>
       <c r="C348" s="8">
         <v>45805</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E348" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15741,18 +15641,18 @@
       <c r="L348" s="11"/>
       <c r="M348" s="11"/>
     </row>
-    <row r="349" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B349" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="B349" s="7" t="s">
-        <v>746</v>
       </c>
       <c r="C349" s="8">
         <v>45932</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E349" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15773,18 +15673,18 @@
       <c r="L349" s="11"/>
       <c r="M349" s="11"/>
     </row>
-    <row r="350" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B350" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="B350" s="7" t="s">
-        <v>749</v>
       </c>
       <c r="C350" s="8">
         <v>45989</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E350" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15805,18 +15705,18 @@
       <c r="L350" s="11"/>
       <c r="M350" s="11"/>
     </row>
-    <row r="351" spans="1:13" ht="144" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B351" s="7" t="s">
         <v>750</v>
-      </c>
-      <c r="B351" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="C351" s="8">
         <v>45888</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E351" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15837,18 +15737,18 @@
       <c r="L351" s="11"/>
       <c r="M351" s="11"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B352" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="B352" s="7" t="s">
-        <v>753</v>
       </c>
       <c r="C352" s="8">
         <v>45901</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E352" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15869,12 +15769,12 @@
       <c r="L352" s="11"/>
       <c r="M352" s="11"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B353" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>755</v>
       </c>
       <c r="C353" s="8">
         <v>45896</v>
@@ -15910,12 +15810,12 @@
       <c r="L353" s="11"/>
       <c r="M353" s="11"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="B354" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="C354" s="8">
         <v>45890</v>
@@ -15942,18 +15842,18 @@
       <c r="L354" s="11"/>
       <c r="M354" s="11"/>
     </row>
-    <row r="355" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B355" s="7" t="s">
         <v>758</v>
-      </c>
-      <c r="B355" s="7" t="s">
-        <v>759</v>
       </c>
       <c r="C355" s="8">
         <v>45819</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E355" s="9" t="str">
         <f t="shared" si="26"/>
@@ -15963,7 +15863,7 @@
         <v>45835</v>
       </c>
       <c r="G355" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H355" s="11" t="str">
         <f>IF(G355="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G355))),ISNUMBER(SEARCH("TLB",UPPER(G355))),ISNUMBER(SEARCH("LINK",UPPER(G355))),ISNUMBER(SEARCH("ROTA",UPPER(G355))),ISNUMBER(SEARCH("ENERGIA",UPPER(G355)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G355))),ISNUMBER(SEARCH("FOTOS",UPPER(G355))),ISNUMBER(SEARCH("DOC",UPPER(G355))),ISNUMBER(SEARCH("TERMO",UPPER(G355))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G355))),ISNUMBER(SEARCH("CORRECAO",UPPER(G355))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -15978,7 +15878,7 @@
         <v>45861</v>
       </c>
       <c r="J355" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K355" s="11" t="str">
         <f t="shared" si="25"/>
@@ -15987,18 +15887,18 @@
       <c r="L355" s="11"/>
       <c r="M355" s="11"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="B356" s="7" t="s">
-        <v>764</v>
       </c>
       <c r="C356" s="8">
         <v>45897</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E356" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16019,12 +15919,12 @@
       <c r="L356" s="11"/>
       <c r="M356" s="11"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="C357" s="8">
         <v>45882</v>
@@ -16051,18 +15951,18 @@
       <c r="L357" s="11"/>
       <c r="M357" s="11"/>
     </row>
-    <row r="358" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B358" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="B358" s="7" t="s">
-        <v>768</v>
       </c>
       <c r="C358" s="8">
         <v>45912</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E358" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16072,7 +15972,7 @@
         <v>45979</v>
       </c>
       <c r="G358" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H358" s="11" t="str">
         <f>IF(G358="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G358))),ISNUMBER(SEARCH("TLB",UPPER(G358))),ISNUMBER(SEARCH("LINK",UPPER(G358))),ISNUMBER(SEARCH("ROTA",UPPER(G358))),ISNUMBER(SEARCH("ENERGIA",UPPER(G358)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G358))),ISNUMBER(SEARCH("FOTOS",UPPER(G358))),ISNUMBER(SEARCH("DOC",UPPER(G358))),ISNUMBER(SEARCH("TERMO",UPPER(G358))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G358))),ISNUMBER(SEARCH("CORRECAO",UPPER(G358))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -16092,12 +15992,12 @@
       <c r="L358" s="11"/>
       <c r="M358" s="11"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B359" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="B359" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="C359" s="8">
         <v>45909</v>
@@ -16124,18 +16024,18 @@
       <c r="L359" s="11"/>
       <c r="M359" s="11"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B360" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="B360" s="7" t="s">
-        <v>772</v>
       </c>
       <c r="C360" s="8">
         <v>45889</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E360" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16156,12 +16056,12 @@
       <c r="L360" s="11"/>
       <c r="M360" s="11"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B361" s="7" t="s">
         <v>773</v>
-      </c>
-      <c r="B361" s="7" t="s">
-        <v>774</v>
       </c>
       <c r="C361" s="8">
         <v>45817</v>
@@ -16188,18 +16088,18 @@
       <c r="L361" s="11"/>
       <c r="M361" s="11"/>
     </row>
-    <row r="362" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B362" s="7" t="s">
         <v>775</v>
-      </c>
-      <c r="B362" s="7" t="s">
-        <v>776</v>
       </c>
       <c r="C362" s="8">
         <v>45973</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E362" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16220,18 +16120,18 @@
       <c r="L362" s="11"/>
       <c r="M362" s="11"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B363" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="B363" s="7" t="s">
-        <v>778</v>
       </c>
       <c r="C363" s="8">
         <v>45894</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E363" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16241,7 +16141,7 @@
         <v>45909</v>
       </c>
       <c r="G363" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H363" s="11" t="str">
         <f>IF(G363="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G363))),ISNUMBER(SEARCH("TLB",UPPER(G363))),ISNUMBER(SEARCH("LINK",UPPER(G363))),ISNUMBER(SEARCH("ROTA",UPPER(G363))),ISNUMBER(SEARCH("ENERGIA",UPPER(G363)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G363))),ISNUMBER(SEARCH("FOTOS",UPPER(G363))),ISNUMBER(SEARCH("DOC",UPPER(G363))),ISNUMBER(SEARCH("TERMO",UPPER(G363))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G363))),ISNUMBER(SEARCH("CORRECAO",UPPER(G363))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -16261,12 +16161,12 @@
       <c r="L363" s="11"/>
       <c r="M363" s="11"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B364" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="B364" s="7" t="s">
-        <v>780</v>
       </c>
       <c r="C364" s="8">
         <v>45897</v>
@@ -16293,18 +16193,18 @@
       <c r="L364" s="11"/>
       <c r="M364" s="11"/>
     </row>
-    <row r="365" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B365" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="B365" s="7" t="s">
-        <v>782</v>
       </c>
       <c r="C365" s="8">
         <v>45821</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E365" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16314,7 +16214,7 @@
         <v>45824</v>
       </c>
       <c r="G365" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H365" s="11" t="str">
         <f t="shared" ref="H365:H367" si="28">IF(G365="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G365))),ISNUMBER(SEARCH("TLB",UPPER(G365))),ISNUMBER(SEARCH("LINK",UPPER(G365))),ISNUMBER(SEARCH("ROTA",UPPER(G365))),ISNUMBER(SEARCH("ENERGIA",UPPER(G365)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G365))),ISNUMBER(SEARCH("FOTOS",UPPER(G365))),ISNUMBER(SEARCH("DOC",UPPER(G365))),ISNUMBER(SEARCH("TERMO",UPPER(G365))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G365))),ISNUMBER(SEARCH("CORRECAO",UPPER(G365))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -16338,18 +16238,18 @@
       <c r="L365" s="11"/>
       <c r="M365" s="11"/>
     </row>
-    <row r="366" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B366" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="B366" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="C366" s="8">
         <v>45849</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E366" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16374,18 +16274,18 @@
       <c r="L366" s="11"/>
       <c r="M366" s="11"/>
     </row>
-    <row r="367" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B367" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>788</v>
       </c>
       <c r="C367" s="8">
         <v>45820</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E367" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16395,7 +16295,7 @@
         <v>45880</v>
       </c>
       <c r="G367" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H367" s="11" t="str">
         <f t="shared" si="28"/>
@@ -16410,12 +16310,12 @@
       <c r="L367" s="11"/>
       <c r="M367" s="11"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B368" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="B368" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="C368" s="8">
         <v>45799</v>
@@ -16442,12 +16342,12 @@
       <c r="L368" s="11"/>
       <c r="M368" s="11"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B369" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="B369" s="7" t="s">
-        <v>792</v>
       </c>
       <c r="C369" s="8"/>
       <c r="D369" s="9"/>
@@ -16470,18 +16370,18 @@
       <c r="L369" s="11"/>
       <c r="M369" s="11"/>
     </row>
-    <row r="370" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B370" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="B370" s="7" t="s">
-        <v>794</v>
       </c>
       <c r="C370" s="8">
         <v>45860</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E370" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16491,7 +16391,7 @@
         <v>45902</v>
       </c>
       <c r="G370" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H370" s="11" t="str">
         <f t="shared" ref="H370:H371" si="29">IF(G370="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G370))),ISNUMBER(SEARCH("TLB",UPPER(G370))),ISNUMBER(SEARCH("LINK",UPPER(G370))),ISNUMBER(SEARCH("ROTA",UPPER(G370))),ISNUMBER(SEARCH("ENERGIA",UPPER(G370)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G370))),ISNUMBER(SEARCH("FOTOS",UPPER(G370))),ISNUMBER(SEARCH("DOC",UPPER(G370))),ISNUMBER(SEARCH("TERMO",UPPER(G370))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G370))),ISNUMBER(SEARCH("CORRECAO",UPPER(G370))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -16511,18 +16411,18 @@
       <c r="L370" s="11"/>
       <c r="M370" s="11"/>
     </row>
-    <row r="371" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B371" s="7" t="s">
         <v>797</v>
-      </c>
-      <c r="B371" s="7" t="s">
-        <v>798</v>
       </c>
       <c r="C371" s="8">
         <v>45862</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E371" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16532,7 +16432,7 @@
         <v>45980</v>
       </c>
       <c r="G371" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H371" s="11" t="str">
         <f t="shared" si="29"/>
@@ -16547,18 +16447,18 @@
       <c r="L371" s="11"/>
       <c r="M371" s="11"/>
     </row>
-    <row r="372" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B372" s="7" t="s">
         <v>800</v>
-      </c>
-      <c r="B372" s="7" t="s">
-        <v>801</v>
       </c>
       <c r="C372" s="8">
         <v>45882</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E372" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16579,12 +16479,12 @@
       <c r="L372" s="11"/>
       <c r="M372" s="11"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B373" s="7" t="s">
         <v>802</v>
-      </c>
-      <c r="B373" s="7" t="s">
-        <v>803</v>
       </c>
       <c r="C373" s="8">
         <v>45895</v>
@@ -16611,18 +16511,18 @@
       <c r="L373" s="11"/>
       <c r="M373" s="11"/>
     </row>
-    <row r="374" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="B374" s="7" t="s">
         <v>804</v>
-      </c>
-      <c r="B374" s="7" t="s">
-        <v>805</v>
       </c>
       <c r="C374" s="8">
         <v>45887</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E374" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16652,12 +16552,12 @@
       <c r="L374" s="11"/>
       <c r="M374" s="11"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B375" s="7" t="s">
         <v>807</v>
-      </c>
-      <c r="B375" s="7" t="s">
-        <v>808</v>
       </c>
       <c r="C375" s="8">
         <v>45807</v>
@@ -16684,18 +16584,18 @@
       <c r="L375" s="11"/>
       <c r="M375" s="11"/>
     </row>
-    <row r="376" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B376" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="B376" s="7" t="s">
-        <v>810</v>
       </c>
       <c r="C376" s="8">
         <v>45889</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E376" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16716,18 +16616,18 @@
       <c r="L376" s="11"/>
       <c r="M376" s="11"/>
     </row>
-    <row r="377" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B377" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="B377" s="7" t="s">
-        <v>813</v>
       </c>
       <c r="C377" s="8">
         <v>45825</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E377" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16757,18 +16657,18 @@
       <c r="L377" s="11"/>
       <c r="M377" s="11"/>
     </row>
-    <row r="378" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B378" s="7" t="s">
         <v>815</v>
-      </c>
-      <c r="B378" s="7" t="s">
-        <v>816</v>
       </c>
       <c r="C378" s="8">
         <v>45978</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E378" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16789,18 +16689,18 @@
       <c r="L378" s="11"/>
       <c r="M378" s="11"/>
     </row>
-    <row r="379" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B379" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="B379" s="7" t="s">
-        <v>819</v>
       </c>
       <c r="C379" s="8">
         <v>45931</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E379" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16810,7 +16710,7 @@
         <v>45952</v>
       </c>
       <c r="G379" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H379" s="11" t="str">
         <f t="shared" ref="H379:H381" si="30">IF(G379="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G379))),ISNUMBER(SEARCH("TLB",UPPER(G379))),ISNUMBER(SEARCH("LINK",UPPER(G379))),ISNUMBER(SEARCH("ROTA",UPPER(G379))),ISNUMBER(SEARCH("ENERGIA",UPPER(G379)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G379))),ISNUMBER(SEARCH("FOTOS",UPPER(G379))),ISNUMBER(SEARCH("DOC",UPPER(G379))),ISNUMBER(SEARCH("TERMO",UPPER(G379))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G379))),ISNUMBER(SEARCH("CORRECAO",UPPER(G379))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -16834,18 +16734,18 @@
       <c r="L379" s="11"/>
       <c r="M379" s="11"/>
     </row>
-    <row r="380" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B380" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="B380" s="7" t="s">
-        <v>822</v>
       </c>
       <c r="C380" s="8">
         <v>45870</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E380" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16870,18 +16770,18 @@
       <c r="L380" s="11"/>
       <c r="M380" s="11"/>
     </row>
-    <row r="381" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B381" s="7" t="s">
         <v>824</v>
-      </c>
-      <c r="B381" s="7" t="s">
-        <v>825</v>
       </c>
       <c r="C381" s="8">
         <v>45869</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E381" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16891,7 +16791,7 @@
         <v>45888</v>
       </c>
       <c r="G381" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H381" s="11" t="str">
         <f t="shared" si="30"/>
@@ -16910,12 +16810,12 @@
       <c r="L381" s="11"/>
       <c r="M381" s="11"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B382" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="B382" s="7" t="s">
-        <v>829</v>
       </c>
       <c r="C382" s="8">
         <v>45875</v>
@@ -16942,12 +16842,12 @@
       <c r="L382" s="11"/>
       <c r="M382" s="11"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B383" s="7" t="s">
         <v>830</v>
-      </c>
-      <c r="B383" s="7" t="s">
-        <v>831</v>
       </c>
       <c r="C383" s="8">
         <v>45806</v>
@@ -16974,18 +16874,18 @@
       <c r="L383" s="11"/>
       <c r="M383" s="11"/>
     </row>
-    <row r="384" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B384" s="7" t="s">
         <v>832</v>
-      </c>
-      <c r="B384" s="7" t="s">
-        <v>833</v>
       </c>
       <c r="C384" s="8">
         <v>45819</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E384" s="9" t="str">
         <f t="shared" si="26"/>
@@ -16995,7 +16895,7 @@
         <v>45882</v>
       </c>
       <c r="G384" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H384" s="11" t="str">
         <f>IF(G384="","",IF(AND(OR(ISNUMBER(SEARCH("TELEBRAS",UPPER(G384))),ISNUMBER(SEARCH("TLB",UPPER(G384))),ISNUMBER(SEARCH("LINK",UPPER(G384))),ISNUMBER(SEARCH("ROTA",UPPER(G384))),ISNUMBER(SEARCH("ENERGIA",UPPER(G384)))),OR(ISNUMBER(SEARCH("MVC",UPPER(G384))),ISNUMBER(SEARCH("FOTOS",UPPER(G384))),ISNUMBER(SEARCH("DOC",UPPER(G384))),ISNUMBER(SEARCH("TERMO",UPPER(G384))),ISNUMBER(SEARCH("CORREÇÃO",UPPER(G384))),ISNUMBER(SEARCH("CORRECAO",UPPER(G384))))),"🔴🟠 Misto (Telebras + MVC)",
@@ -17015,12 +16915,12 @@
       <c r="L384" s="11"/>
       <c r="M384" s="11"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="B385" s="15" t="s">
         <v>835</v>
-      </c>
-      <c r="B385" s="15" t="s">
-        <v>836</v>
       </c>
       <c r="C385" s="8">
         <v>45789</v>

--- a/ControleDeRevisitas.xlsx
+++ b/ControleDeRevisitas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revisitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A12C7-6059-4FFC-A4B8-FF5DE6B8630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52DEC81-CDDC-4939-ADBD-CAA44C50B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AAD6DFC-D512-449D-8372-B7C41E90A1FE}"/>
   </bookViews>
@@ -3381,7 +3381,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}" name="Tabela9" displayName="Tabela9" ref="A1:N385" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N385" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}"/>
+  <autoFilter ref="A1:N385" xr:uid="{46DB83FD-543B-4EF4-AD96-FB9D7DF6F513}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="GOSGG0TC004"/>
+        <filter val="MABBL0TC005"/>
+        <filter val="RJNOF0TC004"/>
+        <filter val="SPSPO0TC100"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1D7DBF8D-8C74-4B86-8CB4-51DD33FD3EBB}" name="SITE-ID" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{B439AEFD-389B-4C3F-B714-17313BB2A506}" name="LOCALIDADE" dataDxfId="12"/>
@@ -3759,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D01BCC-0FD2-4DFB-B5CA-B1F862BC06A9}">
   <dimension ref="A1:N393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,7 +3833,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3928,7 +3937,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3968,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -4008,7 +4017,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
@@ -4409,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -4445,7 +4454,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -4481,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -4553,7 +4562,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -4589,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -4669,7 +4678,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
@@ -4825,7 +4834,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>72</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
@@ -4937,7 +4946,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>83</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
@@ -5122,7 +5131,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -5190,7 +5199,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>93</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>95</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>97</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>99</v>
       </c>
@@ -5334,7 +5343,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
@@ -5406,7 +5415,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
@@ -5442,7 +5451,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>107</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>109</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>111</v>
       </c>
@@ -5558,7 +5567,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>113</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>115</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>117</v>
       </c>
@@ -5666,7 +5675,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>119</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>123</v>
       </c>
@@ -5778,7 +5787,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>125</v>
       </c>
@@ -5827,7 +5836,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>129</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>131</v>
       </c>
@@ -5908,7 +5917,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>131</v>
       </c>
@@ -5944,7 +5953,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>131</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>134</v>
       </c>
@@ -6016,7 +6025,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>136</v>
       </c>
@@ -6052,7 +6061,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>138</v>
       </c>
@@ -6088,7 +6097,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>140</v>
       </c>
@@ -6124,7 +6133,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>142</v>
       </c>
@@ -6169,7 +6178,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>144</v>
       </c>
@@ -6205,7 +6214,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>146</v>
       </c>
@@ -6241,7 +6250,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>148</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>150</v>
       </c>
@@ -6341,7 +6350,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>152</v>
       </c>
@@ -6381,7 +6390,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>154</v>
       </c>
@@ -6421,7 +6430,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>156</v>
       </c>
@@ -6461,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>156</v>
       </c>
@@ -6497,7 +6506,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>160</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>162</v>
       </c>
@@ -6578,7 +6587,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>164</v>
       </c>
@@ -6614,7 +6623,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>166</v>
       </c>
@@ -6650,7 +6659,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>169</v>
       </c>
@@ -6686,7 +6695,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>171</v>
       </c>
@@ -6722,7 +6731,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>173</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>175</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>177</v>
       </c>
@@ -6839,7 +6848,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>179</v>
       </c>
@@ -6875,7 +6884,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>181</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>183</v>
       </c>
@@ -6947,7 +6956,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>185</v>
       </c>
@@ -6983,7 +6992,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>187</v>
       </c>
@@ -7064,7 +7073,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>191</v>
       </c>
@@ -7100,7 +7109,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>193</v>
       </c>
@@ -7176,7 +7185,9 @@
         <f t="shared" si="9"/>
         <v>🟠 Pendência Operacional (MVC)</v>
       </c>
-      <c r="I89" s="10"/>
+      <c r="I89" s="10">
+        <v>45994</v>
+      </c>
       <c r="J89" s="11"/>
       <c r="K89" s="11" t="str">
         <f t="shared" si="5"/>
@@ -7189,7 +7200,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>199</v>
       </c>
@@ -7229,7 +7240,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>201</v>
       </c>
@@ -7269,7 +7280,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>205</v>
       </c>
@@ -7309,7 +7320,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>207</v>
       </c>
@@ -7349,7 +7360,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>209</v>
       </c>
@@ -7389,7 +7400,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>211</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>213</v>
       </c>
@@ -7469,7 +7480,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>215</v>
       </c>
@@ -7505,7 +7516,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>217</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>219</v>
       </c>
@@ -7586,7 +7597,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>221</v>
       </c>
@@ -7622,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>223</v>
       </c>
@@ -7658,7 +7669,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>225</v>
       </c>
@@ -7694,7 +7705,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>227</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>229</v>
       </c>
@@ -7775,7 +7786,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>233</v>
       </c>
@@ -7819,7 +7830,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>235</v>
       </c>
@@ -7855,7 +7866,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>238</v>
       </c>
@@ -7891,7 +7902,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>240</v>
       </c>
@@ -7927,7 +7938,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>242</v>
       </c>
@@ -7963,7 +7974,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>244</v>
       </c>
@@ -7999,7 +8010,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>246</v>
       </c>
@@ -8044,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>248</v>
       </c>
@@ -8080,7 +8091,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>250</v>
       </c>
@@ -8116,7 +8127,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>252</v>
       </c>
@@ -8152,7 +8163,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>254</v>
       </c>
@@ -8201,7 +8212,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>256</v>
       </c>
@@ -8237,7 +8248,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>258</v>
       </c>
@@ -8273,7 +8284,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>260</v>
       </c>
@@ -8309,7 +8320,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>262</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>264</v>
       </c>
@@ -8390,7 +8401,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>266</v>
       </c>
@@ -8426,7 +8437,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>268</v>
       </c>
@@ -8462,7 +8473,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>270</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>272</v>
       </c>
@@ -8543,7 +8554,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>274</v>
       </c>
@@ -8594,7 +8605,7 @@
         <v>🚨 Acontecerá 4º revisita</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>278</v>
       </c>
@@ -8630,7 +8641,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>280</v>
       </c>
@@ -8666,7 +8677,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>282</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>284</v>
       </c>
@@ -8734,7 +8745,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>286</v>
       </c>
@@ -8784,7 +8795,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>288</v>
       </c>
@@ -8825,7 +8836,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>290</v>
       </c>
@@ -8861,7 +8872,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>292</v>
       </c>
@@ -8897,7 +8908,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>294</v>
       </c>
@@ -8942,7 +8953,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>297</v>
       </c>
@@ -8978,7 +8989,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>299</v>
       </c>
@@ -9014,7 +9025,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>301</v>
       </c>
@@ -9059,7 +9070,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>304</v>
       </c>
@@ -9095,7 +9106,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>306</v>
       </c>
@@ -9144,7 +9155,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>308</v>
       </c>
@@ -9180,7 +9191,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>311</v>
       </c>
@@ -9216,7 +9227,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>313</v>
       </c>
@@ -9256,7 +9267,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>315</v>
       </c>
@@ -9292,7 +9303,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>317</v>
       </c>
@@ -9328,7 +9339,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>319</v>
       </c>
@@ -9364,7 +9375,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>321</v>
       </c>
@@ -9400,7 +9411,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>323</v>
       </c>
@@ -9436,7 +9447,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>325</v>
       </c>
@@ -9472,7 +9483,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>327</v>
       </c>
@@ -9508,7 +9519,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>329</v>
       </c>
@@ -9544,7 +9555,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>331</v>
       </c>
@@ -9580,7 +9591,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>333</v>
       </c>
@@ -9616,7 +9627,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>335</v>
       </c>
@@ -9652,7 +9663,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>337</v>
       </c>
@@ -9688,7 +9699,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>339</v>
       </c>
@@ -9724,7 +9735,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>341</v>
       </c>
@@ -9760,7 +9771,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>343</v>
       </c>
@@ -9796,7 +9807,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>345</v>
       </c>
@@ -9832,7 +9843,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>347</v>
       </c>
@@ -9877,7 +9888,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>350</v>
       </c>
@@ -9917,7 +9928,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>352</v>
       </c>
@@ -9961,7 +9972,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>355</v>
       </c>
@@ -10005,7 +10016,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>358</v>
       </c>
@@ -10045,7 +10056,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>361</v>
       </c>
@@ -10081,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="84" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>363</v>
       </c>
@@ -10117,7 +10128,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>365</v>
       </c>
@@ -10153,7 +10164,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>367</v>
       </c>
@@ -10189,7 +10200,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>369</v>
       </c>
@@ -10225,7 +10236,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>371</v>
       </c>
@@ -10270,7 +10281,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>374</v>
       </c>
@@ -10310,7 +10321,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>376</v>
       </c>
@@ -10346,7 +10357,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>378</v>
       </c>
@@ -10382,7 +10393,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>380</v>
       </c>
@@ -10418,7 +10429,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>382</v>
       </c>
@@ -10454,7 +10465,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>384</v>
       </c>
@@ -10499,7 +10510,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>386</v>
       </c>
@@ -10535,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>388</v>
       </c>
@@ -10571,7 +10582,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>390</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>392</v>
       </c>
@@ -10643,7 +10654,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>394</v>
       </c>
@@ -10679,7 +10690,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>396</v>
       </c>
@@ -10715,7 +10726,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>398</v>
       </c>
@@ -10751,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>400</v>
       </c>
@@ -10787,7 +10798,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>402</v>
       </c>
@@ -10823,7 +10834,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>404</v>
       </c>
@@ -10859,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>406</v>
       </c>
@@ -10895,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>408</v>
       </c>
@@ -10940,7 +10951,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>410</v>
       </c>
@@ -10984,7 +10995,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>412</v>
       </c>
@@ -11020,7 +11031,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>414</v>
       </c>
@@ -11056,7 +11067,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>416</v>
       </c>
@@ -11092,7 +11103,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>418</v>
       </c>
@@ -11128,7 +11139,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>420</v>
       </c>
@@ -11164,7 +11175,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>422</v>
       </c>
@@ -11218,7 +11229,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>424</v>
       </c>
@@ -11264,7 +11275,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>426</v>
       </c>
@@ -11300,7 +11311,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>428</v>
       </c>
@@ -11336,7 +11347,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>430</v>
       </c>
@@ -11381,7 +11392,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>432</v>
       </c>
@@ -11417,7 +11428,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>434</v>
       </c>
@@ -11453,7 +11464,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>436</v>
       </c>
@@ -11489,7 +11500,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>438</v>
       </c>
@@ -11525,7 +11536,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>440</v>
       </c>
@@ -11561,7 +11572,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>442</v>
       </c>
@@ -11597,7 +11608,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>444</v>
       </c>
@@ -11633,7 +11644,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>446</v>
       </c>
@@ -11669,7 +11680,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>448</v>
       </c>
@@ -11705,7 +11716,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>450</v>
       </c>
@@ -11741,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>452</v>
       </c>
@@ -11777,7 +11788,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>454</v>
       </c>
@@ -11813,7 +11824,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>456</v>
       </c>
@@ -11849,7 +11860,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>458</v>
       </c>
@@ -11894,7 +11905,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>460</v>
       </c>
@@ -11930,7 +11941,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>462</v>
       </c>
@@ -11966,7 +11977,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>464</v>
       </c>
@@ -12002,7 +12013,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>466</v>
       </c>
@@ -12038,7 +12049,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>468</v>
       </c>
@@ -12074,7 +12085,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>470</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>472</v>
       </c>
@@ -12159,7 +12170,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>474</v>
       </c>
@@ -12199,7 +12210,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>476</v>
       </c>
@@ -12235,7 +12246,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>478</v>
       </c>
@@ -12280,7 +12291,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>480</v>
       </c>
@@ -12316,7 +12327,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>482</v>
       </c>
@@ -12352,7 +12363,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>484</v>
       </c>
@@ -12397,7 +12408,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>486</v>
       </c>
@@ -12433,7 +12444,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>488</v>
       </c>
@@ -12469,7 +12480,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>490</v>
       </c>
@@ -12505,7 +12516,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>492</v>
       </c>
@@ -12541,7 +12552,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>494</v>
       </c>
@@ -12577,7 +12588,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>496</v>
       </c>
@@ -12613,7 +12624,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>498</v>
       </c>
@@ -12649,7 +12660,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>500</v>
       </c>
@@ -12685,7 +12696,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>502</v>
       </c>
@@ -12721,7 +12732,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>504</v>
       </c>
@@ -12766,7 +12777,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>506</v>
       </c>
@@ -12802,7 +12813,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>508</v>
       </c>
@@ -12847,7 +12858,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>510</v>
       </c>
@@ -12883,7 +12894,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>512</v>
       </c>
@@ -12945,7 +12956,9 @@
         <f t="shared" si="19"/>
         <v>🟠 Pendência Operacional (MVC)</v>
       </c>
-      <c r="F240" s="10"/>
+      <c r="F240" s="10">
+        <v>45999</v>
+      </c>
       <c r="G240" s="11"/>
       <c r="H240" s="11" t="str">
         <f t="shared" si="20"/>
@@ -12964,7 +12977,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>516</v>
       </c>
@@ -13009,7 +13022,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>518</v>
       </c>
@@ -13049,7 +13062,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>520</v>
       </c>
@@ -13089,7 +13102,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>522</v>
       </c>
@@ -13125,7 +13138,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>524</v>
       </c>
@@ -13161,7 +13174,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>526</v>
       </c>
@@ -13197,7 +13210,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>528</v>
       </c>
@@ -13233,7 +13246,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>530</v>
       </c>
@@ -13269,7 +13282,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>532</v>
       </c>
@@ -13305,7 +13318,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>534</v>
       </c>
@@ -13341,7 +13354,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>536</v>
       </c>
@@ -13392,7 +13405,7 @@
         <v>🚨 Acontecerá 4º revisita</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>539</v>
       </c>
@@ -13432,7 +13445,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>541</v>
       </c>
@@ -13477,7 +13490,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>543</v>
       </c>
@@ -13517,7 +13530,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>545</v>
       </c>
@@ -13553,7 +13566,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>547</v>
       </c>
@@ -13589,7 +13602,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>549</v>
       </c>
@@ -13625,7 +13638,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>551</v>
       </c>
@@ -13675,7 +13688,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>553</v>
       </c>
@@ -13716,7 +13729,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>556</v>
       </c>
@@ -13752,7 +13765,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>558</v>
       </c>
@@ -13788,7 +13801,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>560</v>
       </c>
@@ -13824,7 +13837,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>562</v>
       </c>
@@ -13861,7 +13874,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>564</v>
       </c>
@@ -13902,7 +13915,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>566</v>
       </c>
@@ -13943,7 +13956,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>568</v>
       </c>
@@ -13979,7 +13992,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>570</v>
       </c>
@@ -14015,7 +14028,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>572</v>
       </c>
@@ -14051,7 +14064,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>574</v>
       </c>
@@ -14096,7 +14109,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>576</v>
       </c>
@@ -14132,7 +14145,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>578</v>
       </c>
@@ -14168,7 +14181,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>580</v>
       </c>
@@ -14217,7 +14230,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>583</v>
       </c>
@@ -14253,7 +14266,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>585</v>
       </c>
@@ -14298,7 +14311,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>587</v>
       </c>
@@ -14334,7 +14347,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>589</v>
       </c>
@@ -14370,7 +14383,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>591</v>
       </c>
@@ -14406,7 +14419,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>593</v>
       </c>
@@ -14451,7 +14464,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>596</v>
       </c>
@@ -14491,7 +14504,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>598</v>
       </c>
@@ -14527,7 +14540,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>600</v>
       </c>
@@ -14563,7 +14576,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>602</v>
       </c>
@@ -14608,7 +14621,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>605</v>
       </c>
@@ -14644,7 +14657,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>607</v>
       </c>
@@ -14680,7 +14693,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>609</v>
       </c>
@@ -14716,7 +14729,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>611</v>
       </c>
@@ -14752,7 +14765,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>613</v>
       </c>
@@ -14788,7 +14801,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>615</v>
       </c>
@@ -14824,7 +14837,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>617</v>
       </c>
@@ -14860,7 +14873,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>619</v>
       </c>
@@ -14896,7 +14909,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>621</v>
       </c>
@@ -14932,7 +14945,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>623</v>
       </c>
@@ -14968,7 +14981,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>625</v>
       </c>
@@ -15013,7 +15026,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>627</v>
       </c>
@@ -15049,7 +15062,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>629</v>
       </c>
@@ -15094,7 +15107,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>631</v>
       </c>
@@ -15130,7 +15143,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>633</v>
       </c>
@@ -15166,7 +15179,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>635</v>
       </c>
@@ -15202,7 +15215,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>637</v>
       </c>
@@ -15238,7 +15251,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>639</v>
       </c>
@@ -15274,7 +15287,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>641</v>
       </c>
@@ -15310,7 +15323,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>643</v>
       </c>
@@ -15355,7 +15368,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>646</v>
       </c>
@@ -15391,7 +15404,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>648</v>
       </c>
@@ -15427,7 +15440,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>651</v>
       </c>
@@ -15472,7 +15485,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>654</v>
       </c>
@@ -15508,7 +15521,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>656</v>
       </c>
@@ -15557,7 +15570,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>658</v>
       </c>
@@ -15597,7 +15610,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>660</v>
       </c>
@@ -15637,7 +15650,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>663</v>
       </c>
@@ -15673,7 +15686,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>665</v>
       </c>
@@ -15709,7 +15722,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>667</v>
       </c>
@@ -15745,7 +15758,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>669</v>
       </c>
@@ -15781,7 +15794,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>671</v>
       </c>
@@ -15817,7 +15830,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>673</v>
       </c>
@@ -15853,7 +15866,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>675</v>
       </c>
@@ -15889,7 +15902,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>677</v>
       </c>
@@ -15925,7 +15938,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>679</v>
       </c>
@@ -15961,7 +15974,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>681</v>
       </c>
@@ -15997,7 +16010,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>683</v>
       </c>
@@ -16033,7 +16046,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>685</v>
       </c>
@@ -16069,7 +16082,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>687</v>
       </c>
@@ -16119,7 +16132,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>689</v>
       </c>
@@ -16164,7 +16177,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>691</v>
       </c>
@@ -16200,7 +16213,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>693</v>
       </c>
@@ -16236,7 +16249,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>695</v>
       </c>
@@ -16272,7 +16285,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>697</v>
       </c>
@@ -16308,7 +16321,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>699</v>
       </c>
@@ -16344,7 +16357,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>701</v>
       </c>
@@ -16398,7 +16411,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>704</v>
       </c>
@@ -16438,7 +16451,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>707</v>
       </c>
@@ -16474,7 +16487,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>709</v>
       </c>
@@ -16510,7 +16523,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>711</v>
       </c>
@@ -16546,7 +16559,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>713</v>
       </c>
@@ -16582,7 +16595,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>715</v>
       </c>
@@ -16618,7 +16631,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>717</v>
       </c>
@@ -16654,7 +16667,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>719</v>
       </c>
@@ -16690,7 +16703,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>721</v>
       </c>
@@ -16726,7 +16739,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>723</v>
       </c>
@@ -16762,7 +16775,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>725</v>
       </c>
@@ -16807,7 +16820,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>727</v>
       </c>
@@ -16843,7 +16856,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>729</v>
       </c>
@@ -16879,7 +16892,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>731</v>
       </c>
@@ -16924,7 +16937,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>733</v>
       </c>
@@ -16960,7 +16973,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>735</v>
       </c>
@@ -16996,7 +17009,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>737</v>
       </c>
@@ -17032,7 +17045,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>740</v>
       </c>
@@ -17068,7 +17081,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>742</v>
       </c>
@@ -17113,7 +17126,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>744</v>
       </c>
@@ -17149,7 +17162,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>747</v>
       </c>
@@ -17185,7 +17198,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>749</v>
       </c>
@@ -17221,7 +17234,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>751</v>
       </c>
@@ -17257,7 +17270,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>753</v>
       </c>
@@ -17302,7 +17315,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>755</v>
       </c>
@@ -17338,7 +17351,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>757</v>
       </c>
@@ -17389,7 +17402,7 @@
         <v>🚨 Acontecerá 4º revisita</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>762</v>
       </c>
@@ -17425,7 +17438,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>764</v>
       </c>
@@ -17461,7 +17474,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>766</v>
       </c>
@@ -17506,7 +17519,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>768</v>
       </c>
@@ -17542,7 +17555,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>770</v>
       </c>
@@ -17578,7 +17591,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>772</v>
       </c>
@@ -17614,7 +17627,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>774</v>
       </c>
@@ -17650,7 +17663,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>776</v>
       </c>
@@ -17695,7 +17708,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>778</v>
       </c>
@@ -17731,7 +17744,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>780</v>
       </c>
@@ -17780,7 +17793,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>783</v>
       </c>
@@ -17820,7 +17833,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>786</v>
       </c>
@@ -17860,7 +17873,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>788</v>
       </c>
@@ -17896,7 +17909,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>790</v>
       </c>
@@ -17928,7 +17941,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>792</v>
       </c>
@@ -17973,7 +17986,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>796</v>
       </c>
@@ -18030,7 +18043,9 @@
         <f t="shared" si="32"/>
         <v>🔴🟠 Misto (Telebras + MVC)</v>
       </c>
-      <c r="F372" s="10"/>
+      <c r="F372" s="10">
+        <v>45994</v>
+      </c>
       <c r="G372" s="11"/>
       <c r="H372" s="11" t="str">
         <f t="shared" si="29"/>
@@ -18049,7 +18064,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>801</v>
       </c>
@@ -18085,7 +18100,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>803</v>
       </c>
@@ -18130,7 +18145,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>806</v>
       </c>
@@ -18166,7 +18181,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>808</v>
       </c>
@@ -18202,7 +18217,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>810</v>
       </c>
@@ -18247,7 +18262,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>813</v>
       </c>
@@ -18283,7 +18298,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>816</v>
       </c>
@@ -18332,7 +18347,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>819</v>
       </c>
@@ -18372,7 +18387,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>822</v>
       </c>
@@ -18416,7 +18431,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>826</v>
       </c>
@@ -18452,7 +18467,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>828</v>
       </c>
@@ -18488,7 +18503,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>830</v>
       </c>
@@ -18533,7 +18548,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
         <v>833</v>
       </c>
